--- a/src/analysis_examples/circadb/results_jtk/cosinor_10394593_fam49a_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10394593_fam49a_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.23670440937033865, 0.37658443031139377]</t>
+          <t>[0.23555458058468304, 0.3777342590970494]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>9.515840782015061e-09</v>
+        <v>1.253366987974402e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>9.515840782015061e-09</v>
+        <v>1.253366987974402e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-1.056631763369539</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.39276150315065883, 0.46868662275524064]</t>
+          <t>[0.39275261171835213, 0.46869551418754735]</t>
         </is>
       </c>
       <c r="U2" t="n">
